--- a/Project4/data/Pacman Results.xlsx
+++ b/Project4/data/Pacman Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djtov\git\Ex4-oops\Project4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E2C88A-1A44-4379-B921-3D8333326C1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7DA708-1E88-4622-BDC7-AF125BD796DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="4860" xr2:uid="{B1113645-A2E1-4863-835B-93B82C7ACC9F}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="D2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>29.2</v>
       </c>
       <c r="G13">
-        <v>38.5</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
